--- a/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>['21', '59']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
   <si>
     <t>['90']</t>
@@ -1116,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK138"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1363,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1638,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT3">
         <v>1.44</v>
@@ -1742,7 +1745,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1933,7 +1936,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2124,7 +2127,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2697,7 +2700,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2888,7 +2891,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3843,7 +3846,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4225,7 +4228,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -4798,7 +4801,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4989,7 +4992,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5076,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT21">
         <v>0.67</v>
@@ -5180,7 +5183,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5371,7 +5374,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6135,7 +6138,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6326,7 +6329,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6708,7 +6711,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6899,7 +6902,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7090,7 +7093,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7472,7 +7475,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7559,7 +7562,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT34">
         <v>1.7</v>
@@ -7663,7 +7666,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8045,7 +8048,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8236,7 +8239,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8618,7 +8621,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9000,7 +9003,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9191,7 +9194,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9764,7 +9767,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9955,7 +9958,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10337,7 +10340,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10424,7 +10427,7 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT49">
         <v>0.78</v>
@@ -10719,7 +10722,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11292,7 +11295,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>11</v>
@@ -11483,7 +11486,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>12</v>
@@ -11674,7 +11677,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11865,7 +11868,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13011,7 +13014,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13584,7 +13587,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13775,7 +13778,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>-1</v>
@@ -13862,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT67">
         <v>1.13</v>
@@ -13966,7 +13969,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14157,7 +14160,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14348,7 +14351,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14730,7 +14733,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15685,7 +15688,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15876,7 +15879,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16067,7 +16070,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16258,7 +16261,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16449,7 +16452,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>16</v>
@@ -16640,7 +16643,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16831,7 +16834,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17109,7 +17112,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT84">
         <v>0.75</v>
@@ -17786,7 +17789,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18168,7 +18171,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18741,7 +18744,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18932,7 +18935,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19123,7 +19126,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>16</v>
@@ -19314,7 +19317,7 @@
         <v>81</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -19887,7 +19890,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q99">
         <v>11</v>
@@ -20356,7 +20359,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT101">
         <v>0.78</v>
@@ -20651,7 +20654,7 @@
         <v>156</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>-1</v>
@@ -21033,7 +21036,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21224,7 +21227,7 @@
         <v>158</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21415,7 +21418,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21606,7 +21609,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21988,7 +21991,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22179,7 +22182,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22370,7 +22373,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22561,7 +22564,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22943,7 +22946,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23325,7 +23328,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>9</v>
@@ -23707,7 +23710,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23898,7 +23901,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24280,7 +24283,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24471,7 +24474,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24662,7 +24665,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24749,7 +24752,7 @@
         <v>1.13</v>
       </c>
       <c r="AS124">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT124">
         <v>1</v>
@@ -24853,7 +24856,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25044,7 +25047,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -25235,7 +25238,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25426,7 +25429,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -26190,7 +26193,7 @@
         <v>137</v>
       </c>
       <c r="P132" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26381,7 +26384,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27478,6 +27481,197 @@
       </c>
       <c r="BK138">
         <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2567780</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44996.26041666666</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>66</v>
+      </c>
+      <c r="H139" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>180</v>
+      </c>
+      <c r="P139" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q139">
+        <v>3</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>5</v>
+      </c>
+      <c r="T139">
+        <v>2.75</v>
+      </c>
+      <c r="U139">
+        <v>2.2</v>
+      </c>
+      <c r="V139">
+        <v>3.75</v>
+      </c>
+      <c r="W139">
+        <v>1.36</v>
+      </c>
+      <c r="X139">
+        <v>3</v>
+      </c>
+      <c r="Y139">
+        <v>2.4</v>
+      </c>
+      <c r="Z139">
+        <v>1.5</v>
+      </c>
+      <c r="AA139">
+        <v>6</v>
+      </c>
+      <c r="AB139">
+        <v>1.11</v>
+      </c>
+      <c r="AC139">
+        <v>2.04</v>
+      </c>
+      <c r="AD139">
+        <v>3.33</v>
+      </c>
+      <c r="AE139">
+        <v>3.31</v>
+      </c>
+      <c r="AF139">
+        <v>1.04</v>
+      </c>
+      <c r="AG139">
+        <v>10</v>
+      </c>
+      <c r="AH139">
+        <v>1.22</v>
+      </c>
+      <c r="AI139">
+        <v>4</v>
+      </c>
+      <c r="AJ139">
+        <v>1.91</v>
+      </c>
+      <c r="AK139">
+        <v>1.85</v>
+      </c>
+      <c r="AL139">
+        <v>1.73</v>
+      </c>
+      <c r="AM139">
+        <v>2</v>
+      </c>
+      <c r="AN139">
+        <v>1.2</v>
+      </c>
+      <c r="AO139">
+        <v>1.25</v>
+      </c>
+      <c r="AP139">
+        <v>1.72</v>
+      </c>
+      <c r="AQ139">
+        <v>2.38</v>
+      </c>
+      <c r="AR139">
+        <v>1</v>
+      </c>
+      <c r="AS139">
+        <v>2.22</v>
+      </c>
+      <c r="AT139">
+        <v>1</v>
+      </c>
+      <c r="AU139">
+        <v>1.44</v>
+      </c>
+      <c r="AV139">
+        <v>1.3</v>
+      </c>
+      <c r="AW139">
+        <v>2.74</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>2</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>4</v>
+      </c>
+      <c r="BG139">
+        <v>5</v>
+      </c>
+      <c r="BH139">
+        <v>4</v>
+      </c>
+      <c r="BI139">
+        <v>8</v>
+      </c>
+      <c r="BJ139">
+        <v>8</v>
+      </c>
+      <c r="BK139">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,15 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['4', '53', '68']</t>
+  </si>
+  <si>
+    <t>['16', '46', '48']</t>
+  </si>
+  <si>
+    <t>['30', '49']</t>
+  </si>
+  <si>
     <t>['90']</t>
   </si>
   <si>
@@ -758,6 +767,9 @@
   </si>
   <si>
     <t>['26', '87']</t>
+  </si>
+  <si>
+    <t>['19', '72']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1375,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1745,7 +1757,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1835,7 +1847,7 @@
         <v>1.33</v>
       </c>
       <c r="AT4">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1936,7 +1948,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2127,7 +2139,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2214,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT6">
         <v>1.44</v>
@@ -2408,7 +2420,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2596,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT8">
         <v>1.13</v>
@@ -2700,7 +2712,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2891,7 +2903,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3169,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT11">
         <v>0.75</v>
@@ -3846,7 +3858,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3936,7 +3948,7 @@
         <v>1.44</v>
       </c>
       <c r="AT15">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4228,7 +4240,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -4509,7 +4521,7 @@
         <v>2</v>
       </c>
       <c r="AT18">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU18">
         <v>1.6</v>
@@ -4801,7 +4813,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4888,10 +4900,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU20">
         <v>2.36</v>
@@ -4992,7 +5004,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5183,7 +5195,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5374,7 +5386,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5461,7 +5473,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT23">
         <v>1.7</v>
@@ -6138,7 +6150,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6329,7 +6341,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6711,7 +6723,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6902,7 +6914,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7093,7 +7105,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7371,7 +7383,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT33">
         <v>0.67</v>
@@ -7475,7 +7487,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7666,7 +7678,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -7756,7 +7768,7 @@
         <v>1.38</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU35">
         <v>1.52</v>
@@ -7944,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -8048,7 +8060,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8135,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT37">
         <v>0.5</v>
@@ -8239,7 +8251,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8329,7 +8341,7 @@
         <v>1.67</v>
       </c>
       <c r="AT38">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU38">
         <v>1.6</v>
@@ -8520,7 +8532,7 @@
         <v>2.44</v>
       </c>
       <c r="AT39">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU39">
         <v>1.96</v>
@@ -8621,7 +8633,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9003,7 +9015,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9194,7 +9206,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9767,7 +9779,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9958,7 +9970,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10340,7 +10352,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10430,7 +10442,7 @@
         <v>2.22</v>
       </c>
       <c r="AT49">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU49">
         <v>1.47</v>
@@ -10722,7 +10734,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10809,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT51">
         <v>0.75</v>
@@ -11003,7 +11015,7 @@
         <v>1.67</v>
       </c>
       <c r="AT52">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU52">
         <v>1.6</v>
@@ -11194,7 +11206,7 @@
         <v>1.88</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU53">
         <v>1.03</v>
@@ -11295,7 +11307,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>11</v>
@@ -11382,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT54">
         <v>1</v>
@@ -11486,7 +11498,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>12</v>
@@ -11573,7 +11585,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT55">
         <v>1.13</v>
@@ -11677,7 +11689,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11868,7 +11880,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12149,7 +12161,7 @@
         <v>2.63</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU58">
         <v>1.52</v>
@@ -13014,7 +13026,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13101,7 +13113,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT63">
         <v>1.75</v>
@@ -13587,7 +13599,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13674,7 +13686,7 @@
         <v>0.33</v>
       </c>
       <c r="AS66">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT66">
         <v>0.75</v>
@@ -13778,7 +13790,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>-1</v>
@@ -13969,7 +13981,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14059,7 +14071,7 @@
         <v>1.38</v>
       </c>
       <c r="AT68">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU68">
         <v>1.25</v>
@@ -14160,7 +14172,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14250,7 +14262,7 @@
         <v>2</v>
       </c>
       <c r="AT69">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14351,7 +14363,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14733,7 +14745,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14820,7 +14832,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT72">
         <v>0.38</v>
@@ -15688,7 +15700,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15879,7 +15891,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15969,7 +15981,7 @@
         <v>1.75</v>
       </c>
       <c r="AT78">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU78">
         <v>1.44</v>
@@ -16070,7 +16082,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16160,7 +16172,7 @@
         <v>1.44</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU79">
         <v>1.16</v>
@@ -16261,7 +16273,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16348,7 +16360,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT80">
         <v>1.22</v>
@@ -16452,7 +16464,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>16</v>
@@ -16643,7 +16655,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16730,7 +16742,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT82">
         <v>1.13</v>
@@ -16834,7 +16846,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17688,7 +17700,7 @@
         <v>1.88</v>
       </c>
       <c r="AT87">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU87">
         <v>1.25</v>
@@ -17789,7 +17801,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -17876,7 +17888,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT88">
         <v>1.75</v>
@@ -18171,7 +18183,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18744,7 +18756,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18834,7 +18846,7 @@
         <v>1.44</v>
       </c>
       <c r="AT93">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU93">
         <v>1.23</v>
@@ -18935,7 +18947,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19126,7 +19138,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>16</v>
@@ -19317,7 +19329,7 @@
         <v>81</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -19404,7 +19416,7 @@
         <v>1.4</v>
       </c>
       <c r="AS96">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT96">
         <v>1.44</v>
@@ -19598,7 +19610,7 @@
         <v>2.44</v>
       </c>
       <c r="AT97">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU97">
         <v>1.75</v>
@@ -19786,7 +19798,7 @@
         <v>0.4</v>
       </c>
       <c r="AS98">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT98">
         <v>0.38</v>
@@ -19890,7 +19902,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q99">
         <v>11</v>
@@ -20654,7 +20666,7 @@
         <v>156</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>-1</v>
@@ -20935,7 +20947,7 @@
         <v>1.38</v>
       </c>
       <c r="AT104">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU104">
         <v>1.59</v>
@@ -21036,7 +21048,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21227,7 +21239,7 @@
         <v>158</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21418,7 +21430,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21609,7 +21621,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21991,7 +22003,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22078,10 +22090,10 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT110">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU110">
         <v>1.8</v>
@@ -22182,7 +22194,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22272,7 +22284,7 @@
         <v>1.89</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU111">
         <v>1.72</v>
@@ -22373,7 +22385,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22564,7 +22576,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22651,7 +22663,7 @@
         <v>0.57</v>
       </c>
       <c r="AS113">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT113">
         <v>0.67</v>
@@ -22946,7 +22958,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23033,7 +23045,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT115">
         <v>1.22</v>
@@ -23227,7 +23239,7 @@
         <v>1.33</v>
       </c>
       <c r="AT116">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU116">
         <v>1.94</v>
@@ -23328,7 +23340,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>9</v>
@@ -23710,7 +23722,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23901,7 +23913,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24283,7 +24295,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24474,7 +24486,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24665,7 +24677,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24755,7 +24767,7 @@
         <v>2.22</v>
       </c>
       <c r="AT124">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU124">
         <v>1.43</v>
@@ -24856,7 +24868,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25047,7 +25059,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -25238,7 +25250,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25325,7 +25337,7 @@
         <v>0.63</v>
       </c>
       <c r="AS127">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT127">
         <v>0.67</v>
@@ -25429,7 +25441,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25516,10 +25528,10 @@
         <v>0.88</v>
       </c>
       <c r="AS128">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT128">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU128">
         <v>2.13</v>
@@ -25898,7 +25910,7 @@
         <v>1.5</v>
       </c>
       <c r="AS130">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT130">
         <v>1.44</v>
@@ -26092,7 +26104,7 @@
         <v>1.89</v>
       </c>
       <c r="AT131">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU131">
         <v>1.63</v>
@@ -26193,7 +26205,7 @@
         <v>137</v>
       </c>
       <c r="P132" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26384,7 +26396,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27672,6 +27684,579 @@
       </c>
       <c r="BK139">
         <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2567777</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44996.4375</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>69</v>
+      </c>
+      <c r="H140" t="s">
+        <v>80</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>181</v>
+      </c>
+      <c r="P140" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>8</v>
+      </c>
+      <c r="S140">
+        <v>13</v>
+      </c>
+      <c r="T140">
+        <v>2.4</v>
+      </c>
+      <c r="U140">
+        <v>2.4</v>
+      </c>
+      <c r="V140">
+        <v>4</v>
+      </c>
+      <c r="W140">
+        <v>1.3</v>
+      </c>
+      <c r="X140">
+        <v>3.22</v>
+      </c>
+      <c r="Y140">
+        <v>2.4</v>
+      </c>
+      <c r="Z140">
+        <v>1.5</v>
+      </c>
+      <c r="AA140">
+        <v>5.3</v>
+      </c>
+      <c r="AB140">
+        <v>1.12</v>
+      </c>
+      <c r="AC140">
+        <v>1.9</v>
+      </c>
+      <c r="AD140">
+        <v>3.5</v>
+      </c>
+      <c r="AE140">
+        <v>3.4</v>
+      </c>
+      <c r="AF140">
+        <v>1.04</v>
+      </c>
+      <c r="AG140">
+        <v>10</v>
+      </c>
+      <c r="AH140">
+        <v>1.2</v>
+      </c>
+      <c r="AI140">
+        <v>4.33</v>
+      </c>
+      <c r="AJ140">
+        <v>1.57</v>
+      </c>
+      <c r="AK140">
+        <v>2.15</v>
+      </c>
+      <c r="AL140">
+        <v>1.57</v>
+      </c>
+      <c r="AM140">
+        <v>2.25</v>
+      </c>
+      <c r="AN140">
+        <v>1.22</v>
+      </c>
+      <c r="AO140">
+        <v>1.2</v>
+      </c>
+      <c r="AP140">
+        <v>1.75</v>
+      </c>
+      <c r="AQ140">
+        <v>1.38</v>
+      </c>
+      <c r="AR140">
+        <v>1</v>
+      </c>
+      <c r="AS140">
+        <v>1.56</v>
+      </c>
+      <c r="AT140">
+        <v>0.9</v>
+      </c>
+      <c r="AU140">
+        <v>2.16</v>
+      </c>
+      <c r="AV140">
+        <v>1.47</v>
+      </c>
+      <c r="AW140">
+        <v>3.63</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>0</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>8</v>
+      </c>
+      <c r="BG140">
+        <v>6</v>
+      </c>
+      <c r="BH140">
+        <v>1</v>
+      </c>
+      <c r="BI140">
+        <v>5</v>
+      </c>
+      <c r="BJ140">
+        <v>9</v>
+      </c>
+      <c r="BK140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2567775</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44997.26041666666</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>71</v>
+      </c>
+      <c r="H141" t="s">
+        <v>67</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141" t="s">
+        <v>182</v>
+      </c>
+      <c r="P141" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q141">
+        <v>10</v>
+      </c>
+      <c r="R141">
+        <v>5</v>
+      </c>
+      <c r="S141">
+        <v>15</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>2.25</v>
+      </c>
+      <c r="V141">
+        <v>4.33</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>3</v>
+      </c>
+      <c r="Y141">
+        <v>2.62</v>
+      </c>
+      <c r="Z141">
+        <v>1.44</v>
+      </c>
+      <c r="AA141">
+        <v>6</v>
+      </c>
+      <c r="AB141">
+        <v>1.11</v>
+      </c>
+      <c r="AC141">
+        <v>1.6</v>
+      </c>
+      <c r="AD141">
+        <v>3.4</v>
+      </c>
+      <c r="AE141">
+        <v>4.13</v>
+      </c>
+      <c r="AF141">
+        <v>1.05</v>
+      </c>
+      <c r="AG141">
+        <v>9</v>
+      </c>
+      <c r="AH141">
+        <v>1.25</v>
+      </c>
+      <c r="AI141">
+        <v>3.75</v>
+      </c>
+      <c r="AJ141">
+        <v>1.76</v>
+      </c>
+      <c r="AK141">
+        <v>2.02</v>
+      </c>
+      <c r="AL141">
+        <v>1.67</v>
+      </c>
+      <c r="AM141">
+        <v>2.1</v>
+      </c>
+      <c r="AN141">
+        <v>1.25</v>
+      </c>
+      <c r="AO141">
+        <v>1.29</v>
+      </c>
+      <c r="AP141">
+        <v>1.85</v>
+      </c>
+      <c r="AQ141">
+        <v>1.44</v>
+      </c>
+      <c r="AR141">
+        <v>0.75</v>
+      </c>
+      <c r="AS141">
+        <v>1.6</v>
+      </c>
+      <c r="AT141">
+        <v>0.67</v>
+      </c>
+      <c r="AU141">
+        <v>1.73</v>
+      </c>
+      <c r="AV141">
+        <v>1.4</v>
+      </c>
+      <c r="AW141">
+        <v>3.13</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>2</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>7</v>
+      </c>
+      <c r="BG141">
+        <v>5</v>
+      </c>
+      <c r="BH141">
+        <v>6</v>
+      </c>
+      <c r="BI141">
+        <v>5</v>
+      </c>
+      <c r="BJ141">
+        <v>13</v>
+      </c>
+      <c r="BK141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2567778</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44997.4375</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" t="s">
+        <v>73</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>183</v>
+      </c>
+      <c r="P142" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q142">
+        <v>12</v>
+      </c>
+      <c r="R142">
+        <v>3</v>
+      </c>
+      <c r="S142">
+        <v>15</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>2.2</v>
+      </c>
+      <c r="V142">
+        <v>3.5</v>
+      </c>
+      <c r="W142">
+        <v>1.41</v>
+      </c>
+      <c r="X142">
+        <v>2.69</v>
+      </c>
+      <c r="Y142">
+        <v>2.9</v>
+      </c>
+      <c r="Z142">
+        <v>1.36</v>
+      </c>
+      <c r="AA142">
+        <v>7.2</v>
+      </c>
+      <c r="AB142">
+        <v>1.06</v>
+      </c>
+      <c r="AC142">
+        <v>2.25</v>
+      </c>
+      <c r="AD142">
+        <v>3.4</v>
+      </c>
+      <c r="AE142">
+        <v>2.75</v>
+      </c>
+      <c r="AF142">
+        <v>1.07</v>
+      </c>
+      <c r="AG142">
+        <v>7.5</v>
+      </c>
+      <c r="AH142">
+        <v>1.36</v>
+      </c>
+      <c r="AI142">
+        <v>3</v>
+      </c>
+      <c r="AJ142">
+        <v>1.9</v>
+      </c>
+      <c r="AK142">
+        <v>1.9</v>
+      </c>
+      <c r="AL142">
+        <v>1.73</v>
+      </c>
+      <c r="AM142">
+        <v>2</v>
+      </c>
+      <c r="AN142">
+        <v>1.4</v>
+      </c>
+      <c r="AO142">
+        <v>1.29</v>
+      </c>
+      <c r="AP142">
+        <v>1.57</v>
+      </c>
+      <c r="AQ142">
+        <v>1.13</v>
+      </c>
+      <c r="AR142">
+        <v>0.78</v>
+      </c>
+      <c r="AS142">
+        <v>1.11</v>
+      </c>
+      <c r="AT142">
+        <v>0.8</v>
+      </c>
+      <c r="AU142">
+        <v>1.57</v>
+      </c>
+      <c r="AV142">
+        <v>1.4</v>
+      </c>
+      <c r="AW142">
+        <v>2.97</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AY142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>0</v>
+      </c>
+      <c r="BC142">
+        <v>0</v>
+      </c>
+      <c r="BD142">
+        <v>1.83</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>4</v>
+      </c>
+      <c r="BG142">
+        <v>3</v>
+      </c>
+      <c r="BH142">
+        <v>8</v>
+      </c>
+      <c r="BI142">
+        <v>6</v>
+      </c>
+      <c r="BJ142">
+        <v>12</v>
+      </c>
+      <c r="BK142">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>['30', '49']</t>
+  </si>
+  <si>
+    <t>['28', '89']</t>
   </si>
   <si>
     <t>['90']</t>
@@ -1131,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1378,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1757,7 +1760,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1948,7 +1951,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2139,7 +2142,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2417,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT7">
         <v>0.9</v>
@@ -2611,7 +2614,7 @@
         <v>1.6</v>
       </c>
       <c r="AT8">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2712,7 +2715,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2903,7 +2906,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3858,7 +3861,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4240,7 +4243,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -4813,7 +4816,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5004,7 +5007,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5195,7 +5198,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5386,7 +5389,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5664,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5858,7 +5861,7 @@
         <v>2.44</v>
       </c>
       <c r="AT25">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>1.97</v>
@@ -6150,7 +6153,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6341,7 +6344,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6723,7 +6726,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6914,7 +6917,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7105,7 +7108,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7487,7 +7490,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7678,7 +7681,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8060,7 +8063,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8251,7 +8254,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8338,7 +8341,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT38">
         <v>0.8</v>
@@ -8633,7 +8636,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9015,7 +9018,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9206,7 +9209,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9779,7 +9782,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9970,7 +9973,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10352,7 +10355,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10734,7 +10737,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11012,7 +11015,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT52">
         <v>0.67</v>
@@ -11307,7 +11310,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>11</v>
@@ -11498,7 +11501,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>12</v>
@@ -11588,7 +11591,7 @@
         <v>1.56</v>
       </c>
       <c r="AT55">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>1.73</v>
@@ -11689,7 +11692,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11779,7 +11782,7 @@
         <v>2</v>
       </c>
       <c r="AT56">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>1.55</v>
@@ -11880,7 +11883,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13026,7 +13029,7 @@
         <v>81</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13599,7 +13602,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13790,7 +13793,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>-1</v>
@@ -13880,7 +13883,7 @@
         <v>2.22</v>
       </c>
       <c r="AT67">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>1.43</v>
@@ -13981,7 +13984,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14172,7 +14175,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14363,7 +14366,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14450,7 +14453,7 @@
         <v>0.75</v>
       </c>
       <c r="AS70">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT70">
         <v>0.5</v>
@@ -14745,7 +14748,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15700,7 +15703,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15891,7 +15894,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16082,7 +16085,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16273,7 +16276,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16464,7 +16467,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>16</v>
@@ -16655,7 +16658,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16745,7 +16748,7 @@
         <v>1.11</v>
       </c>
       <c r="AT82">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>1.48</v>
@@ -16846,7 +16849,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17801,7 +17804,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18079,7 +18082,7 @@
         <v>0.5</v>
       </c>
       <c r="AS89">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT89">
         <v>0.38</v>
@@ -18183,7 +18186,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18756,7 +18759,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18947,7 +18950,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19138,7 +19141,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>16</v>
@@ -19225,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="AS95">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT95">
         <v>0.78</v>
@@ -19329,7 +19332,7 @@
         <v>81</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -19902,7 +19905,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q99">
         <v>11</v>
@@ -20666,7 +20669,7 @@
         <v>156</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>-1</v>
@@ -20756,7 +20759,7 @@
         <v>1.75</v>
       </c>
       <c r="AT103">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU103">
         <v>1.43</v>
@@ -21048,7 +21051,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21239,7 +21242,7 @@
         <v>158</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21326,7 +21329,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT106">
         <v>1.22</v>
@@ -21430,7 +21433,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21621,7 +21624,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22003,7 +22006,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22194,7 +22197,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22385,7 +22388,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22576,7 +22579,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22958,7 +22961,7 @@
         <v>81</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23340,7 +23343,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>9</v>
@@ -23722,7 +23725,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23913,7 +23916,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24295,7 +24298,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24486,7 +24489,7 @@
         <v>93</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24573,7 +24576,7 @@
         <v>1.25</v>
       </c>
       <c r="AS123">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT123">
         <v>1.44</v>
@@ -24677,7 +24680,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24868,7 +24871,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -24958,7 +24961,7 @@
         <v>1.33</v>
       </c>
       <c r="AT125">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.48</v>
@@ -25059,7 +25062,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -25250,7 +25253,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25441,7 +25444,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -26205,7 +26208,7 @@
         <v>137</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26396,7 +26399,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -28115,7 +28118,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q142">
         <v>12</v>
@@ -28257,6 +28260,197 @@
       </c>
       <c r="BK142">
         <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2567781</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44998.5</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>70</v>
+      </c>
+      <c r="H143" t="s">
+        <v>78</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>184</v>
+      </c>
+      <c r="P143" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q143">
+        <v>3</v>
+      </c>
+      <c r="R143">
+        <v>5</v>
+      </c>
+      <c r="S143">
+        <v>8</v>
+      </c>
+      <c r="T143">
+        <v>2.3</v>
+      </c>
+      <c r="U143">
+        <v>2.3</v>
+      </c>
+      <c r="V143">
+        <v>4.5</v>
+      </c>
+      <c r="W143">
+        <v>1.36</v>
+      </c>
+      <c r="X143">
+        <v>3</v>
+      </c>
+      <c r="Y143">
+        <v>2.62</v>
+      </c>
+      <c r="Z143">
+        <v>1.44</v>
+      </c>
+      <c r="AA143">
+        <v>6</v>
+      </c>
+      <c r="AB143">
+        <v>1.11</v>
+      </c>
+      <c r="AC143">
+        <v>1.73</v>
+      </c>
+      <c r="AD143">
+        <v>3.6</v>
+      </c>
+      <c r="AE143">
+        <v>4</v>
+      </c>
+      <c r="AF143">
+        <v>1.06</v>
+      </c>
+      <c r="AG143">
+        <v>8</v>
+      </c>
+      <c r="AH143">
+        <v>1.29</v>
+      </c>
+      <c r="AI143">
+        <v>3.5</v>
+      </c>
+      <c r="AJ143">
+        <v>1.7</v>
+      </c>
+      <c r="AK143">
+        <v>2.1</v>
+      </c>
+      <c r="AL143">
+        <v>1.67</v>
+      </c>
+      <c r="AM143">
+        <v>2.1</v>
+      </c>
+      <c r="AN143">
+        <v>1.33</v>
+      </c>
+      <c r="AO143">
+        <v>1.3</v>
+      </c>
+      <c r="AP143">
+        <v>1.65</v>
+      </c>
+      <c r="AQ143">
+        <v>1.67</v>
+      </c>
+      <c r="AR143">
+        <v>1.13</v>
+      </c>
+      <c r="AS143">
+        <v>1.8</v>
+      </c>
+      <c r="AT143">
+        <v>1</v>
+      </c>
+      <c r="AU143">
+        <v>1.58</v>
+      </c>
+      <c r="AV143">
+        <v>1.34</v>
+      </c>
+      <c r="AW143">
+        <v>2.92</v>
+      </c>
+      <c r="AX143">
+        <v>1.95</v>
+      </c>
+      <c r="AY143">
+        <v>6.6</v>
+      </c>
+      <c r="AZ143">
+        <v>2.3</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>1.23</v>
+      </c>
+      <c r="BC143">
+        <v>1.42</v>
+      </c>
+      <c r="BD143">
+        <v>1.73</v>
+      </c>
+      <c r="BE143">
+        <v>2.2</v>
+      </c>
+      <c r="BF143">
+        <v>4</v>
+      </c>
+      <c r="BG143">
+        <v>3</v>
+      </c>
+      <c r="BH143">
+        <v>8</v>
+      </c>
+      <c r="BI143">
+        <v>7</v>
+      </c>
+      <c r="BJ143">
+        <v>12</v>
+      </c>
+      <c r="BK143">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>1.7</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>0.8</v>
@@ -2527,7 +2527,7 @@
         <v>2.63</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT12" t="n">
         <v>0.5</v>
@@ -3136,7 +3136,7 @@
         <v>1.38</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.88</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT15" t="n">
         <v>0.67</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.38</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>0.5</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU26" t="n">
         <v>1.8</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU27" t="n">
         <v>1.43</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU29" t="n">
         <v>1.56</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT30" t="n">
         <v>0.75</v>
@@ -6790,7 +6790,7 @@
         <v>1.38</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.9</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.63</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU42" t="n">
         <v>2.13</v>
@@ -9226,7 +9226,7 @@
         <v>2.44</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU43" t="n">
         <v>1.7</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT44" t="n">
         <v>0.75</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU45" t="n">
         <v>1.31</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT46" t="n">
         <v>1.44</v>
@@ -10850,7 +10850,7 @@
         <v>1.6</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU51" t="n">
         <v>1.99</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.4</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT59" t="n">
         <v>1.44</v>
@@ -12674,10 +12674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU60" t="n">
         <v>1.6</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT61" t="n">
         <v>0.67</v>
@@ -13080,7 +13080,7 @@
         <v>2.25</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT62" t="n">
         <v>1.44</v>
@@ -13286,7 +13286,7 @@
         <v>1.6</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU63" t="n">
         <v>1.81</v>
@@ -13486,10 +13486,10 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.72</v>
@@ -13895,7 +13895,7 @@
         <v>1.11</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.42</v>
@@ -15113,7 +15113,7 @@
         <v>1.56</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU72" t="n">
         <v>2.22</v>
@@ -15516,7 +15516,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.44</v>
@@ -15922,7 +15922,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT76" t="n">
         <v>0.67</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
         <v>1.44</v>
@@ -16328,7 +16328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT78" t="n">
         <v>0.8</v>
@@ -16531,7 +16531,7 @@
         <v>0.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT79" t="n">
         <v>0.9</v>
@@ -16737,7 +16737,7 @@
         <v>1.6</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU80" t="n">
         <v>1.75</v>
@@ -16940,7 +16940,7 @@
         <v>2.44</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>1.66</v>
@@ -17549,7 +17549,7 @@
         <v>2.22</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU84" t="n">
         <v>1.43</v>
@@ -18361,7 +18361,7 @@
         <v>1.56</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU88" t="n">
         <v>2.22</v>
@@ -18564,7 +18564,7 @@
         <v>1.8</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU89" t="n">
         <v>1.44</v>
@@ -18764,7 +18764,7 @@
         <v>1.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT90" t="n">
         <v>1.7</v>
@@ -18967,7 +18967,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT91" t="n">
         <v>1.44</v>
@@ -19170,7 +19170,7 @@
         <v>0.67</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT92" t="n">
         <v>0.67</v>
@@ -19373,7 +19373,7 @@
         <v>1.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT93" t="n">
         <v>0.8</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU94" t="n">
         <v>1.86</v>
@@ -19782,7 +19782,7 @@
         <v>1.8</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.5</v>
@@ -20391,7 +20391,7 @@
         <v>1.11</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU98" t="n">
         <v>1.41</v>
@@ -20591,10 +20591,10 @@
         <v>1.6</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU99" t="n">
         <v>1.99</v>
@@ -21000,7 +21000,7 @@
         <v>2.22</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU101" t="n">
         <v>1.39</v>
@@ -21403,7 +21403,7 @@
         <v>0.83</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -21812,7 +21812,7 @@
         <v>1.88</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU105" t="n">
         <v>1.23</v>
@@ -22015,7 +22015,7 @@
         <v>1.8</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU106" t="n">
         <v>1.64</v>
@@ -22215,7 +22215,7 @@
         <v>2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT107" t="n">
         <v>1.7</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -23027,7 +23027,7 @@
         <v>0.86</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
         <v>0.9</v>
@@ -23639,7 +23639,7 @@
         <v>2.63</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU114" t="n">
         <v>1.45</v>
@@ -23842,7 +23842,7 @@
         <v>1.11</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU115" t="n">
         <v>1.53</v>
@@ -24042,7 +24042,7 @@
         <v>0.83</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT116" t="n">
         <v>0.67</v>
@@ -24248,7 +24248,7 @@
         <v>1.38</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24448,10 +24448,10 @@
         <v>0.33</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU118" t="n">
         <v>1.43</v>
@@ -24651,7 +24651,7 @@
         <v>0.57</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT119" t="n">
         <v>0.5</v>
@@ -24857,7 +24857,7 @@
         <v>1.38</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU120" t="n">
         <v>1.62</v>
@@ -25869,7 +25869,7 @@
         <v>1.14</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT126" t="n">
         <v>1</v>
@@ -27087,7 +27087,7 @@
         <v>0.86</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT131" t="n">
         <v>0.67</v>
@@ -27290,10 +27290,10 @@
         <v>0.71</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU132" t="n">
         <v>1.41</v>
@@ -27493,7 +27493,7 @@
         <v>0.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT133" t="n">
         <v>0.75</v>
@@ -27696,10 +27696,10 @@
         <v>0.88</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU134" t="n">
         <v>1.42</v>
@@ -27902,7 +27902,7 @@
         <v>1.88</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU135" t="n">
         <v>1.27</v>
@@ -28105,7 +28105,7 @@
         <v>2.63</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU136" t="n">
         <v>1.43</v>
@@ -28308,7 +28308,7 @@
         <v>1.38</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU137" t="n">
         <v>1.56</v>
@@ -29578,6 +29578,1021 @@
       </c>
       <c r="BK143" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2567782</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45003.26041666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>19</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Třinec</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Varnsdorf</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>3</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['19', '90+2']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4</v>
+      </c>
+      <c r="R144" t="n">
+        <v>5</v>
+      </c>
+      <c r="S144" t="n">
+        <v>9</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2567783</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>19</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Dukla Praha</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Slavia Praha U21</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>3</v>
+      </c>
+      <c r="L145" t="n">
+        <v>4</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>5</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['7', '22', '67', '82']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>9</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" t="n">
+        <v>9</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V145" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2567787</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>19</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Líšeň</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Vyškov</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>12</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2</v>
+      </c>
+      <c r="S146" t="n">
+        <v>14</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V146" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2567786</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>19</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Vlašim</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>9</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2</v>
+      </c>
+      <c r="S147" t="n">
+        <v>11</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2567784</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>19</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Prostějov</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Příbram</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['15', '48']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>12</v>
+      </c>
+      <c r="R148" t="n">
+        <v>3</v>
+      </c>
+      <c r="S148" t="n">
+        <v>15</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1146,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2053,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>1.89</v>
@@ -5109,7 +5109,7 @@
         <v>2.22</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU21">
         <v>1.43</v>
@@ -5297,7 +5297,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT22">
         <v>1.4</v>
@@ -7401,7 +7401,7 @@
         <v>1.11</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU33">
         <v>1.2</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT35">
         <v>0.9</v>
@@ -10075,7 +10075,7 @@
         <v>2.67</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU47">
         <v>1.4</v>
@@ -10263,7 +10263,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT48">
         <v>1.7</v>
@@ -12749,7 +12749,7 @@
         <v>1.3</v>
       </c>
       <c r="AT61">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU61">
         <v>1.16</v>
@@ -14083,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT68">
         <v>0.8</v>
@@ -15614,7 +15614,7 @@
         <v>1.2</v>
       </c>
       <c r="AT76">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU76">
         <v>2.19</v>
@@ -16948,7 +16948,7 @@
         <v>0.8</v>
       </c>
       <c r="AS83">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT83">
         <v>0.5</v>
@@ -18670,7 +18670,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU92">
         <v>1.72</v>
@@ -20195,7 +20195,7 @@
         <v>0.8</v>
       </c>
       <c r="AS100">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
         <v>0.67</v>
@@ -22681,7 +22681,7 @@
         <v>1.56</v>
       </c>
       <c r="AT113">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU113">
         <v>2.08</v>
@@ -23442,7 +23442,7 @@
         <v>0.57</v>
       </c>
       <c r="AS117">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -25355,7 +25355,7 @@
         <v>1.6</v>
       </c>
       <c r="AT127">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU127">
         <v>1.74</v>
@@ -29991,6 +29991,197 @@
       </c>
       <c r="BK151">
         <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2567776</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F152">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s">
+        <v>76</v>
+      </c>
+      <c r="H152" t="s">
+        <v>77</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>144</v>
+      </c>
+      <c r="P152" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q152">
+        <v>5</v>
+      </c>
+      <c r="R152">
+        <v>7</v>
+      </c>
+      <c r="S152">
+        <v>12</v>
+      </c>
+      <c r="T152">
+        <v>2.88</v>
+      </c>
+      <c r="U152">
+        <v>2.05</v>
+      </c>
+      <c r="V152">
+        <v>4</v>
+      </c>
+      <c r="W152">
+        <v>1.41</v>
+      </c>
+      <c r="X152">
+        <v>2.7</v>
+      </c>
+      <c r="Y152">
+        <v>2.7</v>
+      </c>
+      <c r="Z152">
+        <v>1.41</v>
+      </c>
+      <c r="AA152">
+        <v>6.3</v>
+      </c>
+      <c r="AB152">
+        <v>1.08</v>
+      </c>
+      <c r="AC152">
+        <v>2</v>
+      </c>
+      <c r="AD152">
+        <v>3.3</v>
+      </c>
+      <c r="AE152">
+        <v>3.3</v>
+      </c>
+      <c r="AF152">
+        <v>1.07</v>
+      </c>
+      <c r="AG152">
+        <v>7.5</v>
+      </c>
+      <c r="AH152">
+        <v>1.33</v>
+      </c>
+      <c r="AI152">
+        <v>3.24</v>
+      </c>
+      <c r="AJ152">
+        <v>2.15</v>
+      </c>
+      <c r="AK152">
+        <v>1.57</v>
+      </c>
+      <c r="AL152">
+        <v>1.91</v>
+      </c>
+      <c r="AM152">
+        <v>1.8</v>
+      </c>
+      <c r="AN152">
+        <v>1.25</v>
+      </c>
+      <c r="AO152">
+        <v>1.33</v>
+      </c>
+      <c r="AP152">
+        <v>1.7</v>
+      </c>
+      <c r="AQ152">
+        <v>1.38</v>
+      </c>
+      <c r="AR152">
+        <v>0.67</v>
+      </c>
+      <c r="AS152">
+        <v>1.33</v>
+      </c>
+      <c r="AT152">
+        <v>0.7</v>
+      </c>
+      <c r="AU152">
+        <v>1.46</v>
+      </c>
+      <c r="AV152">
+        <v>1.29</v>
+      </c>
+      <c r="AW152">
+        <v>2.75</v>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152">
+        <v>0</v>
+      </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>0</v>
+      </c>
+      <c r="BC152">
+        <v>1.83</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>4</v>
+      </c>
+      <c r="BG152">
+        <v>3</v>
+      </c>
+      <c r="BH152">
+        <v>1</v>
+      </c>
+      <c r="BI152">
+        <v>2</v>
+      </c>
+      <c r="BJ152">
+        <v>5</v>
+      </c>
+      <c r="BK152">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>1.4</v>
@@ -1309,7 +1309,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT5" t="n">
         <v>0.7</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT6" t="n">
         <v>1.4</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT11" t="n">
         <v>0.67</v>
@@ -2933,7 +2933,7 @@
         <v>1.2</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT13" t="n">
         <v>1.89</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT14" t="n">
         <v>0.33</v>
@@ -3542,7 +3542,7 @@
         <v>1.3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>1.6</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU19" t="n">
         <v>1.52</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU20" t="n">
         <v>2.36</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
         <v>0.7</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT22" t="n">
         <v>1.4</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU23" t="n">
         <v>1.71</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT32" t="n">
         <v>1.4</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT33" t="n">
         <v>0.7</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU34" t="n">
         <v>1.45</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU35" t="n">
         <v>1.52</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU37" t="n">
         <v>2.17</v>
@@ -8208,10 +8208,10 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.6</v>
@@ -8414,7 +8414,7 @@
         <v>2.44</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU39" t="n">
         <v>1.96</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU48" t="n">
         <v>1.54</v>
@@ -10441,10 +10441,10 @@
         <v>1.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.47</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU50" t="n">
         <v>1.55</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU51" t="n">
         <v>1.99</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU52" t="n">
         <v>1.6</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU53" t="n">
         <v>1.03</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU57" t="n">
         <v>1.4</v>
@@ -12271,7 +12271,7 @@
         <v>2.67</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU58" t="n">
         <v>1.52</v>
@@ -13283,7 +13283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT63" t="n">
         <v>1.89</v>
@@ -13892,10 +13892,10 @@
         <v>0.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU66" t="n">
         <v>1.42</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.25</v>
@@ -14501,10 +14501,10 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU69" t="n">
         <v>1.78</v>
@@ -14704,10 +14704,10 @@
         <v>0.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU70" t="n">
         <v>1.35</v>
@@ -15110,7 +15110,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT72" t="n">
         <v>0.33</v>
@@ -15313,10 +15313,10 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU73" t="n">
         <v>1.23</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT75" t="n">
         <v>0.67</v>
@@ -16331,7 +16331,7 @@
         <v>1.56</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.44</v>
@@ -16534,7 +16534,7 @@
         <v>1.3</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU79" t="n">
         <v>1.16</v>
@@ -16734,7 +16734,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT80" t="n">
         <v>1.4</v>
@@ -17140,7 +17140,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17343,10 +17343,10 @@
         <v>0.8</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU83" t="n">
         <v>1.4</v>
@@ -17546,10 +17546,10 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU84" t="n">
         <v>1.43</v>
@@ -17955,7 +17955,7 @@
         <v>1.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU86" t="n">
         <v>1.59</v>
@@ -18155,10 +18155,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU87" t="n">
         <v>1.25</v>
@@ -18358,7 +18358,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT88" t="n">
         <v>1.89</v>
@@ -18561,7 +18561,7 @@
         <v>0.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT89" t="n">
         <v>0.33</v>
@@ -18767,7 +18767,7 @@
         <v>1.2</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU90" t="n">
         <v>2.09</v>
@@ -19376,7 +19376,7 @@
         <v>1.3</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.23</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT94" t="n">
         <v>1.4</v>
@@ -19779,7 +19779,7 @@
         <v>0</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT95" t="n">
         <v>1</v>
@@ -19982,7 +19982,7 @@
         <v>1.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT96" t="n">
         <v>1.4</v>
@@ -20188,7 +20188,7 @@
         <v>2.44</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU97" t="n">
         <v>1.75</v>
@@ -20388,7 +20388,7 @@
         <v>0.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT98" t="n">
         <v>0.33</v>
@@ -20794,7 +20794,7 @@
         <v>0.8</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT100" t="n">
         <v>0.67</v>
@@ -20997,7 +20997,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT101" t="n">
         <v>1</v>
@@ -21203,7 +21203,7 @@
         <v>2.67</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU102" t="n">
         <v>1.44</v>
@@ -21609,7 +21609,7 @@
         <v>1.33</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU104" t="n">
         <v>1.59</v>
@@ -21809,10 +21809,10 @@
         <v>0.8</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU105" t="n">
         <v>1.23</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT106" t="n">
         <v>1.4</v>
@@ -22218,7 +22218,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU107" t="n">
         <v>1.6</v>
@@ -22621,7 +22621,7 @@
         <v>1.43</v>
       </c>
       <c r="AS109" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT109" t="n">
         <v>1.4</v>
@@ -22824,10 +22824,10 @@
         <v>1</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.8</v>
@@ -23030,7 +23030,7 @@
         <v>2</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU111" t="n">
         <v>1.72</v>
@@ -23433,7 +23433,7 @@
         <v>0.57</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT113" t="n">
         <v>0.7</v>
@@ -23639,7 +23639,7 @@
         <v>2.67</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU114" t="n">
         <v>1.45</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT115" t="n">
         <v>1.4</v>
@@ -24045,7 +24045,7 @@
         <v>1.2</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU116" t="n">
         <v>1.94</v>
@@ -24245,7 +24245,7 @@
         <v>0.57</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT117" t="n">
         <v>1</v>
@@ -24654,7 +24654,7 @@
         <v>1.3</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU119" t="n">
         <v>1.31</v>
@@ -25057,7 +25057,7 @@
         <v>0.83</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT121" t="n">
         <v>0.67</v>
@@ -25260,7 +25260,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT122" t="n">
         <v>1.4</v>
@@ -25463,7 +25463,7 @@
         <v>1.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT123" t="n">
         <v>1.4</v>
@@ -25666,10 +25666,10 @@
         <v>1.13</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU124" t="n">
         <v>1.43</v>
@@ -26275,7 +26275,7 @@
         <v>0.63</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT127" t="n">
         <v>0.7</v>
@@ -26478,10 +26478,10 @@
         <v>0.88</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>2.13</v>
@@ -26684,7 +26684,7 @@
         <v>2.44</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU129" t="n">
         <v>1.76</v>
@@ -26884,7 +26884,7 @@
         <v>1.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT130" t="n">
         <v>1.4</v>
@@ -27090,7 +27090,7 @@
         <v>2</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU131" t="n">
         <v>1.63</v>
@@ -27293,7 +27293,7 @@
         <v>1.3</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU132" t="n">
         <v>1.41</v>
@@ -27899,7 +27899,7 @@
         <v>1.25</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT135" t="n">
         <v>1.4</v>
@@ -28508,10 +28508,10 @@
         <v>1.89</v>
       </c>
       <c r="AS138" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU138" t="n">
         <v>1.66</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT139" t="n">
         <v>1</v>
@@ -28914,10 +28914,10 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU140" t="n">
         <v>2.16</v>
@@ -29117,10 +29117,10 @@
         <v>0.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU141" t="n">
         <v>1.73</v>
@@ -29320,10 +29320,10 @@
         <v>0.78</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU142" t="n">
         <v>1.57</v>
@@ -29523,7 +29523,7 @@
         <v>1.13</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT143" t="n">
         <v>1</v>
@@ -29729,7 +29729,7 @@
         <v>1.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU144" t="n">
         <v>1.54</v>
@@ -30944,7 +30944,7 @@
         <v>1.44</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT150" t="n">
         <v>1.4</v>
@@ -31350,7 +31350,7 @@
         <v>0.67</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT152" t="n">
         <v>0.7</v>
@@ -31405,6 +31405,1630 @@
       </c>
       <c r="BK152" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2567791</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45016.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>20</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Příbram</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Varnsdorf</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>2</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['37', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>10</v>
+      </c>
+      <c r="R153" t="n">
+        <v>9</v>
+      </c>
+      <c r="S153" t="n">
+        <v>19</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V153" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2567796</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45016.55208333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>20</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Vysočina Jihlava</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Sparta Praha II</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['19', '53']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>6</v>
+      </c>
+      <c r="R154" t="n">
+        <v>5</v>
+      </c>
+      <c r="S154" t="n">
+        <v>11</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2567795</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45017.21875</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Chrudim</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Prostějov</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>9</v>
+      </c>
+      <c r="R155" t="n">
+        <v>5</v>
+      </c>
+      <c r="S155" t="n">
+        <v>14</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V155" t="n">
+        <v>4</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2567794</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45017.21875</v>
+      </c>
+      <c r="F156" t="n">
+        <v>20</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Vyškov</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Dukla Praha</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>2</v>
+      </c>
+      <c r="R156" t="n">
+        <v>12</v>
+      </c>
+      <c r="S156" t="n">
+        <v>14</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2567793</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45017.47916666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>20</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Vlašim</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Třinec</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>3</v>
+      </c>
+      <c r="L157" t="n">
+        <v>4</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>4</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['7', '13', '29', '60']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>7</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V157" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2567790</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45018.21875</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Slavia Praha U21</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>6</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2</v>
+      </c>
+      <c r="S158" t="n">
+        <v>8</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V158" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2567792</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45018.21875</v>
+      </c>
+      <c r="F159" t="n">
+        <v>20</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc II</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Líšeň</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['53', '57']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>9</v>
+      </c>
+      <c r="R159" t="n">
+        <v>7</v>
+      </c>
+      <c r="S159" t="n">
+        <v>16</v>
+      </c>
+      <c r="T159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2567797</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45018.47916666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>20</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Táborsko</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2</v>
+      </c>
+      <c r="K160" t="n">
+        <v>3</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>3</v>
+      </c>
+      <c r="N160" t="n">
+        <v>5</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['15', '77']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['17', '24', '60']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>9</v>
+      </c>
+      <c r="R160" t="n">
+        <v>14</v>
+      </c>
+      <c r="S160" t="n">
+        <v>23</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>1.2</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.52</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -8008,7 +8008,7 @@
         <v>1.55</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>2.17</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT39" t="n">
         <v>0.6</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT43" t="n">
         <v>1.89</v>
@@ -10647,7 +10647,7 @@
         <v>1.82</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.55</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT65" t="n">
         <v>0.67</v>
@@ -14707,7 +14707,7 @@
         <v>1.64</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.35</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -17346,7 +17346,7 @@
         <v>1.3</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.4</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT97" t="n">
         <v>0.82</v>
@@ -21203,7 +21203,7 @@
         <v>2.67</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.44</v>
@@ -23230,7 +23230,7 @@
         <v>1.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT112" t="n">
         <v>1.4</v>
@@ -24654,7 +24654,7 @@
         <v>1.3</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.31</v>
@@ -26681,7 +26681,7 @@
         <v>2.13</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT129" t="n">
         <v>1.82</v>
@@ -32165,7 +32165,7 @@
         <v>2</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU156" t="n">
         <v>1.41</v>
@@ -33029,6 +33029,209 @@
       </c>
       <c r="BK160" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2567774</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45020.47916666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>18</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Varnsdorf</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Dukla Praha</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3</v>
+      </c>
+      <c r="K161" t="n">
+        <v>3</v>
+      </c>
+      <c r="L161" t="n">
+        <v>3</v>
+      </c>
+      <c r="M161" t="n">
+        <v>4</v>
+      </c>
+      <c r="N161" t="n">
+        <v>7</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['51', '90', '90+3']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['10', '27', '35', '78']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>4</v>
+      </c>
+      <c r="R161" t="n">
+        <v>6</v>
+      </c>
+      <c r="S161" t="n">
+        <v>10</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X161" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT2" t="n">
         <v>1.82</v>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>1.7</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.3</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1.3</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT15" t="n">
         <v>0.6</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0.9</v>
@@ -3948,7 +3948,7 @@
         <v>1.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>1.3</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU22" t="n">
         <v>1.36</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU26" t="n">
         <v>1.8</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT27" t="n">
         <v>0.33</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU28" t="n">
         <v>1.65</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU29" t="n">
         <v>1.56</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU30" t="n">
         <v>0.98</v>
@@ -6790,7 +6790,7 @@
         <v>1.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU31" t="n">
         <v>1.9</v>
@@ -6993,7 +6993,7 @@
         <v>1.6</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>1.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU40" t="n">
         <v>1.96</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU41" t="n">
         <v>1.63</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT42" t="n">
         <v>0.33</v>
@@ -9226,7 +9226,7 @@
         <v>2.2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.7</v>
@@ -9426,10 +9426,10 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU44" t="n">
         <v>1.25</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU45" t="n">
         <v>1.31</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU46" t="n">
         <v>1.14</v>
@@ -10035,7 +10035,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT47" t="n">
         <v>0.7</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT57" t="n">
         <v>0.9</v>
@@ -12268,7 +12268,7 @@
         <v>0.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT58" t="n">
         <v>0.82</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU59" t="n">
         <v>2.33</v>
@@ -12674,10 +12674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU60" t="n">
         <v>1.6</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT61" t="n">
         <v>0.7</v>
@@ -13080,10 +13080,10 @@
         <v>2.25</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU62" t="n">
         <v>1.28</v>
@@ -13286,7 +13286,7 @@
         <v>1.55</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.81</v>
@@ -13486,10 +13486,10 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU64" t="n">
         <v>1.72</v>
@@ -13692,7 +13692,7 @@
         <v>2.2</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU65" t="n">
         <v>1.66</v>
@@ -15516,10 +15516,10 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU74" t="n">
         <v>1.73</v>
@@ -15722,7 +15722,7 @@
         <v>1.82</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU75" t="n">
         <v>1.68</v>
@@ -15922,7 +15922,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT76" t="n">
         <v>0.7</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU77" t="n">
         <v>1.58</v>
@@ -16328,7 +16328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16531,7 +16531,7 @@
         <v>0.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT79" t="n">
         <v>0.82</v>
@@ -16737,7 +16737,7 @@
         <v>1.55</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU80" t="n">
         <v>1.75</v>
@@ -16940,7 +16940,7 @@
         <v>2.2</v>
       </c>
       <c r="AT81" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU81" t="n">
         <v>1.66</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -18361,7 +18361,7 @@
         <v>1.7</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU88" t="n">
         <v>2.22</v>
@@ -18764,7 +18764,7 @@
         <v>1.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT90" t="n">
         <v>1.82</v>
@@ -18967,10 +18967,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU91" t="n">
         <v>1.58</v>
@@ -19170,7 +19170,7 @@
         <v>0.67</v>
       </c>
       <c r="AS92" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT92" t="n">
         <v>0.7</v>
@@ -19373,7 +19373,7 @@
         <v>1.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>1.82</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU94" t="n">
         <v>1.86</v>
@@ -19782,7 +19782,7 @@
         <v>1.64</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU95" t="n">
         <v>1.5</v>
@@ -19985,7 +19985,7 @@
         <v>1.55</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU96" t="n">
         <v>1.86</v>
@@ -20591,10 +20591,10 @@
         <v>1.6</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU99" t="n">
         <v>1.99</v>
@@ -20797,7 +20797,7 @@
         <v>1.3</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU100" t="n">
         <v>1.36</v>
@@ -21000,7 +21000,7 @@
         <v>2</v>
       </c>
       <c r="AT101" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU101" t="n">
         <v>1.39</v>
@@ -21200,7 +21200,7 @@
         <v>0.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -21403,7 +21403,7 @@
         <v>0.83</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -22015,7 +22015,7 @@
         <v>1.64</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU106" t="n">
         <v>1.64</v>
@@ -22215,7 +22215,7 @@
         <v>2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT107" t="n">
         <v>1.82</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -22624,7 +22624,7 @@
         <v>1.82</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU109" t="n">
         <v>1.71</v>
@@ -23027,7 +23027,7 @@
         <v>0.86</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT111" t="n">
         <v>0.82</v>
@@ -23233,7 +23233,7 @@
         <v>2.2</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU112" t="n">
         <v>1.74</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT114" t="n">
         <v>0.9</v>
@@ -23842,7 +23842,7 @@
         <v>1.3</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU115" t="n">
         <v>1.53</v>
@@ -24042,7 +24042,7 @@
         <v>0.83</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT116" t="n">
         <v>0.6</v>
@@ -24248,7 +24248,7 @@
         <v>1.3</v>
       </c>
       <c r="AT117" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24448,7 +24448,7 @@
         <v>0.33</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT118" t="n">
         <v>0.33</v>
@@ -24651,7 +24651,7 @@
         <v>0.57</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>1.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU120" t="n">
         <v>1.62</v>
@@ -25060,7 +25060,7 @@
         <v>1.6</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU121" t="n">
         <v>1.19</v>
@@ -25263,7 +25263,7 @@
         <v>1.82</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU122" t="n">
         <v>1.71</v>
@@ -25466,7 +25466,7 @@
         <v>1.64</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU123" t="n">
         <v>1.57</v>
@@ -25869,7 +25869,7 @@
         <v>1.14</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT126" t="n">
         <v>1</v>
@@ -26887,7 +26887,7 @@
         <v>1.3</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU130" t="n">
         <v>1.55</v>
@@ -27087,7 +27087,7 @@
         <v>0.86</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT131" t="n">
         <v>0.6</v>
@@ -27290,7 +27290,7 @@
         <v>0.71</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT132" t="n">
         <v>0.9</v>
@@ -27493,10 +27493,10 @@
         <v>0.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU133" t="n">
         <v>1.81</v>
@@ -27696,10 +27696,10 @@
         <v>0.88</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU134" t="n">
         <v>1.42</v>
@@ -27902,7 +27902,7 @@
         <v>1.6</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU135" t="n">
         <v>1.27</v>
@@ -28102,10 +28102,10 @@
         <v>2</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU136" t="n">
         <v>1.43</v>
@@ -29726,7 +29726,7 @@
         <v>0.75</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT144" t="n">
         <v>0.9</v>
@@ -29929,7 +29929,7 @@
         <v>0.38</v>
       </c>
       <c r="AS145" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT145" t="n">
         <v>0.33</v>
@@ -30132,10 +30132,10 @@
         <v>1.22</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU146" t="n">
         <v>1.42</v>
@@ -30335,10 +30335,10 @@
         <v>0.78</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT147" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU147" t="n">
         <v>1.87</v>
@@ -30538,10 +30538,10 @@
         <v>1.75</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU148" t="n">
         <v>1.48</v>
@@ -30744,7 +30744,7 @@
         <v>1.33</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU149" t="n">
         <v>1.56</v>
@@ -30947,7 +30947,7 @@
         <v>1.6</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU150" t="n">
         <v>1.24</v>
@@ -31147,10 +31147,10 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU151" t="n">
         <v>1.42</v>
@@ -33232,6 +33232,1224 @@
       </c>
       <c r="BK161" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2567803</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45023.47916666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>21</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Líšeň</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Chrudim</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>3</v>
+      </c>
+      <c r="R162" t="n">
+        <v>4</v>
+      </c>
+      <c r="S162" t="n">
+        <v>7</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2567802</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45023.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>21</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Vyškov</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['64', '86']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>6</v>
+      </c>
+      <c r="R163" t="n">
+        <v>6</v>
+      </c>
+      <c r="S163" t="n">
+        <v>12</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2567799</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45024.21875</v>
+      </c>
+      <c r="F164" t="n">
+        <v>21</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Třinec</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc II</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>4</v>
+      </c>
+      <c r="R164" t="n">
+        <v>5</v>
+      </c>
+      <c r="S164" t="n">
+        <v>9</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V164" t="n">
+        <v>4</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2567798</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F165" t="n">
+        <v>21</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Dukla Praha</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Příbram</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['36', '42']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>10</v>
+      </c>
+      <c r="R165" t="n">
+        <v>4</v>
+      </c>
+      <c r="S165" t="n">
+        <v>14</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V165" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2567804</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45024.41666666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Vysočina Jihlava</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>7</v>
+      </c>
+      <c r="R166" t="n">
+        <v>4</v>
+      </c>
+      <c r="S166" t="n">
+        <v>11</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V166" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2567805</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>21</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Prostějov</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Vlašim</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>4</v>
+      </c>
+      <c r="N167" t="n">
+        <v>4</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['13', '58', '69', '88']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>18</v>
+      </c>
+      <c r="R167" t="n">
+        <v>7</v>
+      </c>
+      <c r="S167" t="n">
+        <v>25</v>
+      </c>
+      <c r="T167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X167" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic FNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.82</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>1.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1.27</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU21" t="n">
         <v>1.43</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>1.45</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU27" t="n">
         <v>1.43</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
         <v>1.18</v>
@@ -7196,7 +7196,7 @@
         <v>1.3</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU33" t="n">
         <v>1.2</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT39" t="n">
         <v>0.6</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT40" t="n">
         <v>1.36</v>
@@ -9023,7 +9023,7 @@
         <v>1.18</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU42" t="n">
         <v>2.13</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT43" t="n">
         <v>2</v>
@@ -10038,7 +10038,7 @@
         <v>2.7</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU47" t="n">
         <v>1.4</v>
@@ -12880,7 +12880,7 @@
         <v>1.18</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU61" t="n">
         <v>1.16</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT65" t="n">
         <v>0.7</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT71" t="n">
         <v>1</v>
@@ -15113,7 +15113,7 @@
         <v>1.7</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU72" t="n">
         <v>2.22</v>
@@ -15925,7 +15925,7 @@
         <v>1.18</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU76" t="n">
         <v>2.19</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT81" t="n">
         <v>1.18</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT86" t="n">
         <v>1.82</v>
@@ -18564,7 +18564,7 @@
         <v>1.64</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU89" t="n">
         <v>1.44</v>
@@ -19173,7 +19173,7 @@
         <v>1.82</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU92" t="n">
         <v>1.72</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT97" t="n">
         <v>0.82</v>
@@ -20391,7 +20391,7 @@
         <v>1.3</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU98" t="n">
         <v>1.41</v>
@@ -21606,7 +21606,7 @@
         <v>0.4</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT104" t="n">
         <v>0.6</v>
@@ -23230,7 +23230,7 @@
         <v>1.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT112" t="n">
         <v>1.36</v>
@@ -23436,7 +23436,7 @@
         <v>1.7</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU113" t="n">
         <v>2.08</v>
@@ -24451,7 +24451,7 @@
         <v>1.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU118" t="n">
         <v>1.43</v>
@@ -24854,7 +24854,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT120" t="n">
         <v>2</v>
@@ -26278,7 +26278,7 @@
         <v>1.55</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU127" t="n">
         <v>1.74</v>
@@ -26681,7 +26681,7 @@
         <v>2.13</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT129" t="n">
         <v>1.82</v>
@@ -28305,10 +28305,10 @@
         <v>0.43</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU137" t="n">
         <v>1.56</v>
@@ -29932,7 +29932,7 @@
         <v>1.82</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU145" t="n">
         <v>1.59</v>
@@ -30741,7 +30741,7 @@
         <v>1.44</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT149" t="n">
         <v>1.36</v>
@@ -31353,7 +31353,7 @@
         <v>1.3</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU152" t="n">
         <v>1.46</v>
@@ -33177,7 +33177,7 @@
         <v>0.78</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT161" t="n">
         <v>1</v>
@@ -34450,6 +34450,412 @@
       </c>
       <c r="BK167" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2567801</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45025.22916666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>21</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Sparta Praha II</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Táborsko</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>3</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['60', '84']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>3</v>
+      </c>
+      <c r="R168" t="n">
+        <v>8</v>
+      </c>
+      <c r="S168" t="n">
+        <v>11</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V168" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2567800</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Czech Republic FNL</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45025.47916666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>21</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Varnsdorf</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Slavia Praha U21</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>12</v>
+      </c>
+      <c r="R169" t="n">
+        <v>10</v>
+      </c>
+      <c r="S169" t="n">
+        <v>22</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V169" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
